--- a/Data/descriptive_statistics_clusters.xlsx
+++ b/Data/descriptive_statistics_clusters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malte\Documents\GitHub\TextMiningOECD\Code\Textmining\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malte\Documents\GitHub\Monitoring-Global-Development-Aid-With-Machine-Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC12EEC-EBC2-47CB-9882-CDB2A17396F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5912A9D-0B69-43FD-AA3A-F806401BC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4780,7 +4780,7 @@
       <c r="C168" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F168" s="4">
@@ -4920,14 +4920,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F176" s="4">
-        <f>SUM(F2:F174)</f>
-        <v>2759569.3529822724</v>
-      </c>
-      <c r="G176" s="4">
-        <f>SUM(G2:G174)</f>
-        <v>3199579</v>
-      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
